--- a/Code/Results/Cases/Case_4_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_137/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.56205426043423</v>
+        <v>34.20695657179154</v>
       </c>
       <c r="C2">
-        <v>25.32058608972766</v>
+        <v>16.48957345452475</v>
       </c>
       <c r="D2">
-        <v>7.208458123571533</v>
+        <v>6.084516429361718</v>
       </c>
       <c r="E2">
-        <v>5.008465539408318</v>
+        <v>7.400331956963808</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.06307611671808</v>
+        <v>3.785688023907315</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.493888087251037</v>
+        <v>11.36531711969576</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.5133765247869</v>
+        <v>24.44660392738255</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36.87550333470259</v>
+        <v>33.65162825580455</v>
       </c>
       <c r="C3">
-        <v>23.33226860881592</v>
+        <v>15.87768574033236</v>
       </c>
       <c r="D3">
-        <v>6.647103933962652</v>
+        <v>5.985223694366822</v>
       </c>
       <c r="E3">
-        <v>4.908488590707031</v>
+        <v>7.383559142587797</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.087248750199491</v>
+        <v>3.792791826739354</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.164802840371236</v>
+        <v>11.35282454331879</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.12163134884046</v>
+        <v>24.34342644317945</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35.20603882586826</v>
+        <v>33.31868454241758</v>
       </c>
       <c r="C4">
-        <v>22.07801444627642</v>
+        <v>15.49675428937713</v>
       </c>
       <c r="D4">
-        <v>6.291998744056267</v>
+        <v>5.925718959894797</v>
       </c>
       <c r="E4">
-        <v>4.84906632177463</v>
+        <v>7.373137838210761</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.10205761295527</v>
+        <v>3.797362093414316</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.969395712411457</v>
+        <v>11.34795006038904</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.88929126101387</v>
+        <v>24.28101900450909</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.52009304114606</v>
+        <v>33.1851921875388</v>
       </c>
       <c r="C5">
-        <v>21.55762467668669</v>
+        <v>15.34047527563503</v>
       </c>
       <c r="D5">
-        <v>6.168523789174684</v>
+        <v>5.901867252676617</v>
       </c>
       <c r="E5">
-        <v>4.825236954764402</v>
+        <v>7.368859395947845</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.108103521294226</v>
+        <v>3.799277252383894</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.891326888171577</v>
+        <v>11.34666524037174</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.79644194332251</v>
+        <v>24.25582803741583</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34.40584101190479</v>
+        <v>33.16316259313255</v>
       </c>
       <c r="C6">
-        <v>21.47063247682067</v>
+        <v>15.31447036388212</v>
       </c>
       <c r="D6">
-        <v>6.147959619026244</v>
+        <v>5.897931513567617</v>
       </c>
       <c r="E6">
-        <v>4.821300611918005</v>
+        <v>7.368147026989134</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.109108625182976</v>
+        <v>3.799598457332781</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.878455323837716</v>
+        <v>11.34649421679427</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.78112903289362</v>
+        <v>24.25165971296945</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.19681126426401</v>
+        <v>33.31687515578983</v>
       </c>
       <c r="C7">
-        <v>22.07103484060766</v>
+        <v>15.49465052077567</v>
       </c>
       <c r="D7">
-        <v>6.290337582944764</v>
+        <v>5.925395641878235</v>
       </c>
       <c r="E7">
-        <v>4.848743517439138</v>
+        <v>7.37308026697329</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.102139081469311</v>
+        <v>3.797387707974131</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.968336649015065</v>
+        <v>11.34792989454595</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.88803192204656</v>
+        <v>24.28067829228753</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>38.6393780303257</v>
+        <v>34.01391344013457</v>
       </c>
       <c r="C8">
-        <v>24.64136704703192</v>
+        <v>16.27983417854958</v>
       </c>
       <c r="D8">
-        <v>7.017006932864519</v>
+        <v>6.04999490863867</v>
       </c>
       <c r="E8">
-        <v>4.973513875321693</v>
+        <v>7.39457366692749</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.071430606784054</v>
+        <v>3.788094326994687</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.378958781557472</v>
+        <v>11.3604285968195</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.37645054071454</v>
+        <v>24.41083442211718</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45.53042758895128</v>
+        <v>35.43706442108305</v>
       </c>
       <c r="C9">
-        <v>29.46801399390997</v>
+        <v>17.76745708742209</v>
       </c>
       <c r="D9">
-        <v>8.371348762946374</v>
+        <v>6.304601568413521</v>
       </c>
       <c r="E9">
-        <v>5.240089019947638</v>
+        <v>7.435786749140624</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.009837410818281</v>
+        <v>3.771510270052011</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.244731777915728</v>
+        <v>11.40717237260056</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.41250963095234</v>
+        <v>24.6734128166783</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50.72248071634713</v>
+        <v>36.50687486248272</v>
       </c>
       <c r="C10">
-        <v>32.98261691059447</v>
+        <v>18.81608946938698</v>
       </c>
       <c r="D10">
-        <v>9.349401812327294</v>
+        <v>6.496124126951035</v>
       </c>
       <c r="E10">
-        <v>5.461522354146898</v>
+        <v>7.465551343589564</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.961666577023939</v>
+        <v>3.760305974907577</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.934857620484069</v>
+        <v>11.45510955761834</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.24682876802767</v>
+        <v>24.87060066743078</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53.12737609860266</v>
+        <v>36.99669994638118</v>
       </c>
       <c r="C11">
-        <v>34.60881318325404</v>
+        <v>19.2813262464533</v>
       </c>
       <c r="D11">
-        <v>9.799769847998903</v>
+        <v>6.583843683778287</v>
       </c>
       <c r="E11">
-        <v>5.572138567325098</v>
+        <v>7.478992581242434</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.938410902195119</v>
+        <v>3.755417317389702</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.28130082817586</v>
+        <v>11.47986803171416</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.65109462065366</v>
+        <v>24.96118470882153</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>54.05025320846726</v>
+        <v>37.18246634697305</v>
       </c>
       <c r="C12">
-        <v>35.23290878880628</v>
+        <v>19.4556504940798</v>
       </c>
       <c r="D12">
-        <v>9.972243635577939</v>
+        <v>6.61711556506634</v>
       </c>
       <c r="E12">
-        <v>5.616013043626764</v>
+        <v>7.484069189893313</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.929321748770651</v>
+        <v>3.753595708636907</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.46005829335842</v>
+        <v>11.48966682996629</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.80886941141701</v>
+        <v>24.99560843506217</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>53.85082866715307</v>
+        <v>37.14244848472683</v>
       </c>
       <c r="C13">
-        <v>35.09804052447877</v>
+        <v>19.41819122302595</v>
       </c>
       <c r="D13">
-        <v>9.934989098302303</v>
+        <v>6.609947937100258</v>
       </c>
       <c r="E13">
-        <v>5.606463779797862</v>
+        <v>7.482976427987436</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.931293672843015</v>
+        <v>3.753986712521203</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.42146086609015</v>
+        <v>11.48753768020559</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.77465797750896</v>
+        <v>24.98818935323353</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>53.20301366764228</v>
+        <v>37.01197842341667</v>
       </c>
       <c r="C14">
-        <v>34.65996027384421</v>
+        <v>19.29570591822162</v>
       </c>
       <c r="D14">
-        <v>9.81391245624776</v>
+        <v>6.586580066522471</v>
       </c>
       <c r="E14">
-        <v>5.575704197826731</v>
+        <v>7.479410498057021</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.937669445695259</v>
+        <v>3.755266860785278</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.29596503174524</v>
+        <v>11.48066570936962</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.66397268544884</v>
+        <v>24.96401436576222</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>52.80801816857298</v>
+        <v>36.93209315460219</v>
       </c>
       <c r="C15">
-        <v>34.39286295964352</v>
+        <v>19.22043483705476</v>
       </c>
       <c r="D15">
-        <v>9.740042660557839</v>
+        <v>6.572272745385447</v>
       </c>
       <c r="E15">
-        <v>5.55714274833162</v>
+        <v>7.477224558902607</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.941534683517399</v>
+        <v>3.756054836257197</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.22264869585648</v>
+        <v>11.47651151320943</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.59682693572426</v>
+        <v>24.94922214944</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50.5666404163298</v>
+        <v>36.47491224737698</v>
       </c>
       <c r="C16">
-        <v>32.87722609240883</v>
+        <v>18.78543414537817</v>
       </c>
       <c r="D16">
-        <v>9.320166931182939</v>
+        <v>6.490400734699153</v>
       </c>
       <c r="E16">
-        <v>5.454535309992538</v>
+        <v>7.464671016257538</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.963152487431346</v>
+        <v>3.760629622737058</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.913576868026828</v>
+        <v>11.45355084093224</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.2209933868655</v>
+        <v>24.86469808927952</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>49.20621121460239</v>
+        <v>36.19513087226905</v>
       </c>
       <c r="C17">
-        <v>31.95704225658195</v>
+        <v>18.51543830921693</v>
       </c>
       <c r="D17">
-        <v>9.064668295358699</v>
+        <v>6.440304836163023</v>
       </c>
       <c r="E17">
-        <v>5.394454390097043</v>
+        <v>7.456945158096001</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.976016853425266</v>
+        <v>3.763489210026041</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.729206184377333</v>
+        <v>11.44022053544682</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.99743923174243</v>
+        <v>24.8130675647285</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>48.42730884587048</v>
+        <v>36.03451589683311</v>
       </c>
       <c r="C18">
-        <v>31.43001859174895</v>
+        <v>18.35904192456835</v>
       </c>
       <c r="D18">
-        <v>8.918136919877586</v>
+        <v>6.411548817741871</v>
       </c>
       <c r="E18">
-        <v>5.360783836489535</v>
+        <v>7.452492091127502</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.98329663656179</v>
+        <v>3.765153588400249</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.624821505022178</v>
+        <v>11.43283121493174</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.87109685248327</v>
+        <v>24.783454436786</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>48.1640546298302</v>
+        <v>35.98019270579373</v>
       </c>
       <c r="C19">
-        <v>31.25185596652604</v>
+        <v>18.30590460473363</v>
       </c>
       <c r="D19">
-        <v>8.868568663864739</v>
+        <v>6.401823418906366</v>
       </c>
       <c r="E19">
-        <v>5.349522160807853</v>
+        <v>7.450982724431507</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.985743128644031</v>
+        <v>3.765720497775037</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.589742434298268</v>
+        <v>11.43037707742547</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.82867661294223</v>
+        <v>24.77344242064441</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>49.35062463418815</v>
+        <v>36.22488349495936</v>
       </c>
       <c r="C20">
-        <v>32.05473918359033</v>
+        <v>18.54429506033777</v>
       </c>
       <c r="D20">
-        <v>9.091815678783178</v>
+        <v>6.445631874949917</v>
       </c>
       <c r="E20">
-        <v>5.400755003386425</v>
+        <v>7.457768550799935</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.974660324400316</v>
+        <v>3.763182773880241</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.748655619572478</v>
+        <v>11.44161081240184</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.02099831780309</v>
+        <v>24.81855513026773</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>53.39290086653881</v>
+        <v>37.05029440071635</v>
       </c>
       <c r="C21">
-        <v>34.78836624696597</v>
+        <v>19.33173418983542</v>
       </c>
       <c r="D21">
-        <v>9.849411759452986</v>
+        <v>6.593442544089245</v>
       </c>
       <c r="E21">
-        <v>5.584679361537353</v>
+        <v>7.480458251602842</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.935805300860703</v>
+        <v>3.754890048934076</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.33276864098909</v>
+        <v>11.48267269694558</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.69634498317573</v>
+        <v>24.97111189161463</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>56.11081345667509</v>
+        <v>37.59130490445597</v>
       </c>
       <c r="C22">
-        <v>36.62683982156257</v>
+        <v>19.83552501901535</v>
       </c>
       <c r="D22">
-        <v>10.35671970425299</v>
+        <v>6.690348650468738</v>
       </c>
       <c r="E22">
-        <v>5.71693949484275</v>
+        <v>7.49521021919954</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.90869013311057</v>
+        <v>3.749642767683335</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.85791122097736</v>
+        <v>11.51197547330912</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.16598055595495</v>
+        <v>25.07152218357219</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>54.65051297760263</v>
+        <v>37.30247117991408</v>
       </c>
       <c r="C23">
-        <v>35.63889000734073</v>
+        <v>19.56768096276641</v>
       </c>
       <c r="D23">
-        <v>10.08432928680752</v>
+        <v>6.63861032441439</v>
       </c>
       <c r="E23">
-        <v>5.644986148249184</v>
+        <v>7.487343560789404</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.923360050253202</v>
+        <v>3.752427665107643</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.57613542523522</v>
+        <v>11.4961108477137</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.91222689632738</v>
+        <v>25.01786858967576</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>49.28532569218941</v>
+        <v>36.21143158876535</v>
       </c>
       <c r="C24">
-        <v>32.01056446707643</v>
+        <v>18.53125256224559</v>
       </c>
       <c r="D24">
-        <v>9.07954131041607</v>
+        <v>6.443223378855797</v>
       </c>
       <c r="E24">
-        <v>5.397903822691895</v>
+        <v>7.457396330436511</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.975273966631259</v>
+        <v>3.763321250209176</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.739857568758525</v>
+        <v>11.44098141326037</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.01034053707938</v>
+        <v>24.81607398361044</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>43.6273964865994</v>
+        <v>35.04708234638405</v>
       </c>
       <c r="C25">
-        <v>28.17669838229655</v>
+        <v>17.37198205257585</v>
       </c>
       <c r="D25">
-        <v>8.010344012975576</v>
+        <v>6.234810002351569</v>
       </c>
       <c r="E25">
-        <v>5.164588749633441</v>
+        <v>7.424731960759559</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.026827276418225</v>
+        <v>3.775823147902824</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.002663146874955</v>
+        <v>11.39214054975137</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.12167182740765</v>
+        <v>24.60161215210496</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_137/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.20695657179154</v>
+        <v>39.56205426043419</v>
       </c>
       <c r="C2">
-        <v>16.48957345452475</v>
+        <v>25.32058608972764</v>
       </c>
       <c r="D2">
-        <v>6.084516429361718</v>
+        <v>7.208458123571488</v>
       </c>
       <c r="E2">
-        <v>7.400331956963808</v>
+        <v>5.008465539408384</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.785688023907315</v>
+        <v>2.063076116718341</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.36531711969576</v>
+        <v>8.493888087251047</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.44660392738255</v>
+        <v>20.5133765247869</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.65162825580455</v>
+        <v>36.87550333470249</v>
       </c>
       <c r="C3">
-        <v>15.87768574033236</v>
+        <v>23.33226860881607</v>
       </c>
       <c r="D3">
-        <v>5.985223694366822</v>
+        <v>6.647103933962454</v>
       </c>
       <c r="E3">
-        <v>7.383559142587797</v>
+        <v>4.908488590707299</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.792791826739354</v>
+        <v>2.087248750199739</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.35282454331879</v>
+        <v>8.164802840371253</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.34342644317945</v>
+        <v>20.12163134884041</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33.31868454241758</v>
+        <v>35.20603882586823</v>
       </c>
       <c r="C4">
-        <v>15.49675428937713</v>
+        <v>22.07801444627615</v>
       </c>
       <c r="D4">
-        <v>5.925718959894797</v>
+        <v>6.291998744056253</v>
       </c>
       <c r="E4">
-        <v>7.373137838210761</v>
+        <v>4.849066321774493</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.797362093414316</v>
+        <v>2.102057612955268</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.34795006038904</v>
+        <v>7.96939571241147</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.28101900450909</v>
+        <v>19.88929126101384</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.1851921875388</v>
+        <v>34.5200930411461</v>
       </c>
       <c r="C5">
-        <v>15.34047527563503</v>
+        <v>21.55762467668681</v>
       </c>
       <c r="D5">
-        <v>5.901867252676617</v>
+        <v>6.168523789174683</v>
       </c>
       <c r="E5">
-        <v>7.368859395947845</v>
+        <v>4.825236954764466</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.799277252383894</v>
+        <v>2.108103521294618</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.34666524037174</v>
+        <v>7.891326888171586</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.25582803741583</v>
+        <v>19.79644194332246</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.16316259313255</v>
+        <v>34.40584101190471</v>
       </c>
       <c r="C6">
-        <v>15.31447036388212</v>
+        <v>21.47063247682067</v>
       </c>
       <c r="D6">
-        <v>5.897931513567617</v>
+        <v>6.147959619026235</v>
       </c>
       <c r="E6">
-        <v>7.368147026989134</v>
+        <v>4.821300611917939</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.799598457332781</v>
+        <v>2.109108625183364</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.34649421679427</v>
+        <v>7.878455323837716</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.25165971296945</v>
+        <v>19.7811290328936</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.31687515578983</v>
+        <v>35.19681126426401</v>
       </c>
       <c r="C7">
-        <v>15.49465052077567</v>
+        <v>22.0710348406078</v>
       </c>
       <c r="D7">
-        <v>5.925395641878235</v>
+        <v>6.290337582944749</v>
       </c>
       <c r="E7">
-        <v>7.37308026697329</v>
+        <v>4.848743517439137</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.797387707974131</v>
+        <v>2.102139081469709</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.34792989454595</v>
+        <v>7.968336649015029</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.28067829228753</v>
+        <v>19.88803192204663</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34.01391344013457</v>
+        <v>38.63937803032562</v>
       </c>
       <c r="C8">
-        <v>16.27983417854958</v>
+        <v>24.64136704703202</v>
       </c>
       <c r="D8">
-        <v>6.04999490863867</v>
+        <v>7.017006932864439</v>
       </c>
       <c r="E8">
-        <v>7.39457366692749</v>
+        <v>4.973513875321694</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.788094326994687</v>
+        <v>2.071430606784459</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.3604285968195</v>
+        <v>8.378958781557454</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.41083442211718</v>
+        <v>20.37645054071452</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.43706442108305</v>
+        <v>45.53042758895106</v>
       </c>
       <c r="C9">
-        <v>17.76745708742209</v>
+        <v>29.46801399390979</v>
       </c>
       <c r="D9">
-        <v>6.304601568413521</v>
+        <v>8.371348762946356</v>
       </c>
       <c r="E9">
-        <v>7.435786749140624</v>
+        <v>5.240089019947506</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.771510270052011</v>
+        <v>2.009837410818389</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.40717237260056</v>
+        <v>9.244731777915741</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.6734128166783</v>
+        <v>21.41250963095229</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.50687486248272</v>
+        <v>50.72248071634712</v>
       </c>
       <c r="C10">
-        <v>18.81608946938698</v>
+        <v>32.98261691059452</v>
       </c>
       <c r="D10">
-        <v>6.496124126951035</v>
+        <v>9.349401812327239</v>
       </c>
       <c r="E10">
-        <v>7.465551343589564</v>
+        <v>5.461522354146837</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.760305974907577</v>
+        <v>1.961666577023801</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.45510955761834</v>
+        <v>9.934857620484063</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.87060066743078</v>
+        <v>22.24682876802769</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.99669994638118</v>
+        <v>53.12737609860269</v>
       </c>
       <c r="C11">
-        <v>19.2813262464533</v>
+        <v>34.6088131832539</v>
       </c>
       <c r="D11">
-        <v>6.583843683778287</v>
+        <v>9.799769847998965</v>
       </c>
       <c r="E11">
-        <v>7.478992581242434</v>
+        <v>5.572138567325159</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.755417317389702</v>
+        <v>1.938410902194986</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.47986803171416</v>
+        <v>10.28130082817587</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.96118470882153</v>
+        <v>22.65109462065366</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.18246634697305</v>
+        <v>54.05025320846693</v>
       </c>
       <c r="C12">
-        <v>19.4556504940798</v>
+        <v>35.23290878880603</v>
       </c>
       <c r="D12">
-        <v>6.61711556506634</v>
+        <v>9.972243635577788</v>
       </c>
       <c r="E12">
-        <v>7.484069189893313</v>
+        <v>5.616013043626602</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.753595708636907</v>
+        <v>1.929321748770411</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.48966682996629</v>
+        <v>10.46005829335842</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.99560843506217</v>
+        <v>22.80886941141699</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.14244848472683</v>
+        <v>53.85082866715306</v>
       </c>
       <c r="C13">
-        <v>19.41819122302595</v>
+        <v>35.09804052447878</v>
       </c>
       <c r="D13">
-        <v>6.609947937100258</v>
+        <v>9.934989098302262</v>
       </c>
       <c r="E13">
-        <v>7.482976427987436</v>
+        <v>5.606463779797923</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.753986712521203</v>
+        <v>1.931293672843173</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.48753768020559</v>
+        <v>10.42146086609015</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.98818935323353</v>
+        <v>22.77465797750899</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.01197842341667</v>
+        <v>53.20301366764198</v>
       </c>
       <c r="C14">
-        <v>19.29570591822162</v>
+        <v>34.65996027384403</v>
       </c>
       <c r="D14">
-        <v>6.586580066522471</v>
+        <v>9.813912456247763</v>
       </c>
       <c r="E14">
-        <v>7.479410498057021</v>
+        <v>5.575704197826662</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.755266860785278</v>
+        <v>1.93766944569514</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.48066570936962</v>
+        <v>10.29596503174526</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>24.96401436576222</v>
+        <v>22.66397268544876</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.93209315460219</v>
+        <v>52.80801816857325</v>
       </c>
       <c r="C15">
-        <v>19.22043483705476</v>
+        <v>34.39286295964367</v>
       </c>
       <c r="D15">
-        <v>6.572272745385447</v>
+        <v>9.740042660557881</v>
       </c>
       <c r="E15">
-        <v>7.477224558902607</v>
+        <v>5.557142748331721</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.756054836257197</v>
+        <v>1.941534683517394</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.47651151320943</v>
+        <v>10.22264869585649</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>24.94922214944</v>
+        <v>22.59682693572438</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.47491224737698</v>
+        <v>50.56664041632947</v>
       </c>
       <c r="C16">
-        <v>18.78543414537817</v>
+        <v>32.87722609240853</v>
       </c>
       <c r="D16">
-        <v>6.490400734699153</v>
+        <v>9.320166931182861</v>
       </c>
       <c r="E16">
-        <v>7.464671016257538</v>
+        <v>5.45453530999264</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.760629622737058</v>
+        <v>1.963152487431326</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.45355084093224</v>
+        <v>9.913576868026833</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.86469808927952</v>
+        <v>22.22099338686542</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.19513087226905</v>
+        <v>49.20621121460265</v>
       </c>
       <c r="C17">
-        <v>18.51543830921693</v>
+        <v>31.95704225658222</v>
       </c>
       <c r="D17">
-        <v>6.440304836163023</v>
+        <v>9.064668295358867</v>
       </c>
       <c r="E17">
-        <v>7.456945158096001</v>
+        <v>5.394454390097249</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.763489210026041</v>
+        <v>1.976016853425533</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.44022053544682</v>
+        <v>9.729206184377343</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>24.8130675647285</v>
+        <v>21.99743923174248</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.03451589683311</v>
+        <v>48.42730884587058</v>
       </c>
       <c r="C18">
-        <v>18.35904192456835</v>
+        <v>31.43001859174921</v>
       </c>
       <c r="D18">
-        <v>6.411548817741871</v>
+        <v>8.91813691987757</v>
       </c>
       <c r="E18">
-        <v>7.452492091127502</v>
+        <v>5.360783836489603</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.765153588400249</v>
+        <v>1.983296636561675</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.43283121493174</v>
+        <v>9.624821505022165</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>24.783454436786</v>
+        <v>21.87109685248324</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.98019270579373</v>
+        <v>48.16405462982994</v>
       </c>
       <c r="C19">
-        <v>18.30590460473363</v>
+        <v>31.25185596652564</v>
       </c>
       <c r="D19">
-        <v>6.401823418906366</v>
+        <v>8.868568663864794</v>
       </c>
       <c r="E19">
-        <v>7.450982724431507</v>
+        <v>5.349522160807846</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.765720497775037</v>
+        <v>1.985743128644027</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.43037707742547</v>
+        <v>9.589742434298266</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>24.77344242064441</v>
+        <v>21.82867661294216</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.22488349495936</v>
+        <v>49.3506246341877</v>
       </c>
       <c r="C20">
-        <v>18.54429506033777</v>
+        <v>32.05473918358999</v>
       </c>
       <c r="D20">
-        <v>6.445631874949917</v>
+        <v>9.091815678782966</v>
       </c>
       <c r="E20">
-        <v>7.457768550799935</v>
+        <v>5.400755003386292</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.763182773880241</v>
+        <v>1.974660324400283</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.44161081240184</v>
+        <v>9.748655619572473</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24.81855513026773</v>
+        <v>22.02099831780311</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.05029440071635</v>
+        <v>53.39290086653917</v>
       </c>
       <c r="C21">
-        <v>19.33173418983542</v>
+        <v>34.7883662469663</v>
       </c>
       <c r="D21">
-        <v>6.593442544089245</v>
+        <v>9.849411759453078</v>
       </c>
       <c r="E21">
-        <v>7.480458251602842</v>
+        <v>5.584679361537486</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.754890048934076</v>
+        <v>1.935805300860836</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.48267269694558</v>
+        <v>10.33276864098914</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.97111189161463</v>
+        <v>22.69634498317573</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.59130490445597</v>
+        <v>56.11081345667485</v>
       </c>
       <c r="C22">
-        <v>19.83552501901535</v>
+        <v>36.62683982156237</v>
       </c>
       <c r="D22">
-        <v>6.690348650468738</v>
+        <v>10.35671970425293</v>
       </c>
       <c r="E22">
-        <v>7.49521021919954</v>
+        <v>5.716939494842619</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.749642767683335</v>
+        <v>1.908690133110703</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.51197547330912</v>
+        <v>10.85791122097734</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.07152218357219</v>
+        <v>23.1659805559549</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.30247117991408</v>
+        <v>54.65051297760255</v>
       </c>
       <c r="C23">
-        <v>19.56768096276641</v>
+        <v>35.63889000734061</v>
       </c>
       <c r="D23">
-        <v>6.63861032441439</v>
+        <v>10.0843292868075</v>
       </c>
       <c r="E23">
-        <v>7.487343560789404</v>
+        <v>5.644986148249158</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.752427665107643</v>
+        <v>1.923360050252941</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.4961108477137</v>
+        <v>10.57613542523521</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.01786858967576</v>
+        <v>22.91222689632738</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.21143158876535</v>
+        <v>49.28532569218901</v>
       </c>
       <c r="C24">
-        <v>18.53125256224559</v>
+        <v>32.01056446707609</v>
       </c>
       <c r="D24">
-        <v>6.443223378855797</v>
+        <v>9.079541310416055</v>
       </c>
       <c r="E24">
-        <v>7.457396330436511</v>
+        <v>5.397903822691697</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.763321250209176</v>
+        <v>1.975273966631249</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.44098141326037</v>
+        <v>9.739857568758518</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>24.81607398361044</v>
+        <v>22.01034053707944</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.04708234638405</v>
+        <v>43.62739648659942</v>
       </c>
       <c r="C25">
-        <v>17.37198205257585</v>
+        <v>28.17669838229661</v>
       </c>
       <c r="D25">
-        <v>6.234810002351569</v>
+        <v>8.010344012975658</v>
       </c>
       <c r="E25">
-        <v>7.424731960759559</v>
+        <v>5.164588749633505</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.775823147902824</v>
+        <v>2.026827276418347</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.39214054975137</v>
+        <v>9.002663146874951</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>24.60161215210496</v>
+        <v>21.12167182740765</v>
       </c>
       <c r="O25">
         <v>0</v>
